--- a/Estimation_Records/loss 5 25 burst 2/1MB loss 5 25.xlsx
+++ b/Estimation_Records/loss 5 25 burst 2/1MB loss 5 25.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technion\CommunicationProject\LCCN_Delay_Bit_RTT_Estimator\Estimation_Records\loss 5 25 burst 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technion\semester8\delayBit\LCCN_Delay_Bit_RTT_Estimator\Estimation_Records\loss 5 25 burst 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64D4DDA-CF4B-4672-BF36-95D99187C58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9086973A-1861-47F7-BDF0-8FF04B304792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F879301E-08CA-4326-8C5D-3530C81BCC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>SERVER TO CLIENT:</t>
   </si>
@@ -58,12 +61,15 @@
   <si>
     <t>CLIENT TO SERVER:</t>
   </si>
+  <si>
+    <t>5% Loss with 25% burst</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +80,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,9 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -206,7 +220,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -795,7 +809,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -833,7 +847,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519209311"/>
@@ -919,7 +933,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -957,7 +971,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519198911"/>
@@ -999,7 +1013,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1036,7 +1050,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1123,7 +1137,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1680,7 +1694,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1718,7 +1732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519209311"/>
@@ -1804,7 +1818,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1842,7 +1856,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519198911"/>
@@ -1884,7 +1898,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1921,13 +1935,13 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3422,14 +3436,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02437C0D-00FD-4B74-96FB-66F97659E713}">
-  <dimension ref="A3:M115"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="M73" sqref="M73"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
@@ -4855,6 +4872,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>